--- a/hw.xlsx
+++ b/hw.xlsx
@@ -15,168 +15,180 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
-  <si>
-    <t>Ece</t>
-  </si>
-  <si>
-    <t>Pınar</t>
-  </si>
-  <si>
-    <t>790b460d</t>
-  </si>
-  <si>
-    <t>ece.pinar@90pixel.com</t>
-  </si>
-  <si>
-    <t>Beyza</t>
-  </si>
-  <si>
-    <t>Eker</t>
-  </si>
-  <si>
-    <t>bd9ccc1b</t>
-  </si>
-  <si>
-    <t>beyza.eker@yahoo.com</t>
-  </si>
-  <si>
-    <t>Su</t>
-  </si>
-  <si>
-    <t>c395c2f7</t>
-  </si>
-  <si>
-    <t>ece.su@outlook.com</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
+  <si>
+    <t>Aslı</t>
+  </si>
+  <si>
+    <t>Gün</t>
+  </si>
+  <si>
+    <t>765f8dc9</t>
+  </si>
+  <si>
+    <t>asli.gun@yahoo.com</t>
   </si>
   <si>
     <t>Elif</t>
   </si>
   <si>
-    <t>d1c09803</t>
-  </si>
-  <si>
-    <t>elif.su@hotmail.com</t>
-  </si>
-  <si>
-    <t>Delen</t>
+    <t>da0936a6</t>
+  </si>
+  <si>
+    <t>elif.gun@outlook.com</t>
+  </si>
+  <si>
+    <t>Can</t>
+  </si>
+  <si>
+    <t>Gür</t>
+  </si>
+  <si>
+    <t>9e97303e</t>
+  </si>
+  <si>
+    <t>can.gur@gmail.com</t>
+  </si>
+  <si>
+    <t>Ömer</t>
+  </si>
+  <si>
+    <t>f40bcd0e</t>
+  </si>
+  <si>
+    <t>omer.gur@90pixel.com</t>
+  </si>
+  <si>
+    <t>Kerim</t>
+  </si>
+  <si>
+    <t>Tamer</t>
+  </si>
+  <si>
+    <t>3e6317d6</t>
+  </si>
+  <si>
+    <t>kerim.tamer@hotmail.com</t>
+  </si>
+  <si>
+    <t>Canan</t>
+  </si>
+  <si>
+    <t>862f13e1</t>
+  </si>
+  <si>
+    <t>canan.gur@gmail.com</t>
+  </si>
+  <si>
+    <t>Yılmazer</t>
+  </si>
+  <si>
+    <t>105da319</t>
+  </si>
+  <si>
+    <t>elif.yilmazer@yahoo.com</t>
+  </si>
+  <si>
+    <t>Kırpat</t>
+  </si>
+  <si>
+    <t>c08eac9f</t>
+  </si>
+  <si>
+    <t>omer.kirpat@outlook.com</t>
+  </si>
+  <si>
+    <t>kerim.tamer@yahoo.com</t>
   </si>
   <si>
     <t>Mutlu</t>
   </si>
   <si>
-    <t>cae26931</t>
-  </si>
-  <si>
-    <t>delen.mutlu@90pixel.com</t>
+    <t>7a8986d9</t>
+  </si>
+  <si>
+    <t>can.mutlu@yahoo.com</t>
+  </si>
+  <si>
+    <t>5e3486e1</t>
+  </si>
+  <si>
+    <t>asli.mutlu@90pixel.com</t>
+  </si>
+  <si>
+    <t>Melek</t>
+  </si>
+  <si>
+    <t>Fırtana</t>
+  </si>
+  <si>
+    <t>455dd34d</t>
+  </si>
+  <si>
+    <t>melek.firtana@yahoo.com</t>
+  </si>
+  <si>
+    <t>Ali</t>
+  </si>
+  <si>
+    <t>Özer</t>
+  </si>
+  <si>
+    <t>99c486be</t>
+  </si>
+  <si>
+    <t>ali.ozer@hotmail.com</t>
+  </si>
+  <si>
+    <t>Caner</t>
+  </si>
+  <si>
+    <t>e741b2db</t>
+  </si>
+  <si>
+    <t>caner.gun@gmail.com</t>
+  </si>
+  <si>
+    <t>9eeb87bb</t>
+  </si>
+  <si>
+    <t>ali.yilmazer@yahoo.com</t>
+  </si>
+  <si>
+    <t>Muhittin</t>
+  </si>
+  <si>
+    <t>c70a30e3</t>
+  </si>
+  <si>
+    <t>muhittin.firtana@hotmail.com</t>
+  </si>
+  <si>
+    <t>c625c31c</t>
+  </si>
+  <si>
+    <t>asli.gun@hotmail.com</t>
   </si>
   <si>
     <t>Akar</t>
   </si>
   <si>
-    <t>4f0c4f13</t>
-  </si>
-  <si>
-    <t>elif.akar@outlook.com</t>
-  </si>
-  <si>
-    <t>c5e5b139</t>
-  </si>
-  <si>
-    <t>Fırtana</t>
-  </si>
-  <si>
-    <t>8c4bfe7c</t>
-  </si>
-  <si>
-    <t>delen.firtana@90pixel.com</t>
-  </si>
-  <si>
-    <t>15a9d7a8</t>
-  </si>
-  <si>
-    <t>elif.akar@90pixel.com</t>
-  </si>
-  <si>
-    <t>Melek</t>
-  </si>
-  <si>
-    <t>fd189cf6</t>
-  </si>
-  <si>
-    <t>melek.firtana@hotmail.com</t>
-  </si>
-  <si>
-    <t>Ahsen</t>
-  </si>
-  <si>
-    <t>442d2295</t>
-  </si>
-  <si>
-    <t>ahsen.mutlu@90pixel.com</t>
-  </si>
-  <si>
-    <t>Yudum</t>
-  </si>
-  <si>
-    <t>elif.yudum@yahoo.com</t>
-  </si>
-  <si>
-    <t>Kısa</t>
-  </si>
-  <si>
-    <t>2ae0505a</t>
-  </si>
-  <si>
-    <t>melek.kisa@90pixel.com</t>
-  </si>
-  <si>
-    <t>Ömer</t>
-  </si>
-  <si>
-    <t>618b5ec7</t>
-  </si>
-  <si>
-    <t>omer.mutlu@gmail.com</t>
-  </si>
-  <si>
-    <t>Ali</t>
-  </si>
-  <si>
-    <t>85d2279f</t>
-  </si>
-  <si>
-    <t>ali.kisa@outlook.com</t>
-  </si>
-  <si>
-    <t>abc4016c</t>
-  </si>
-  <si>
-    <t>delen.firtana@outlook.com</t>
-  </si>
-  <si>
-    <t>3d6328a7</t>
-  </si>
-  <si>
-    <t>elif.su@90pixel.com</t>
-  </si>
-  <si>
-    <t>0da695a0</t>
-  </si>
-  <si>
-    <t>ece.pinar@gmail.com</t>
-  </si>
-  <si>
-    <t>2b65eb95</t>
-  </si>
-  <si>
-    <t>ece.eker@outlook.com</t>
-  </si>
-  <si>
-    <t>c9886715</t>
-  </si>
-  <si>
-    <t>ece.yudum@outlook.com</t>
+    <t>ce048a6d</t>
+  </si>
+  <si>
+    <t>muhittin.akar@gmail.com</t>
+  </si>
+  <si>
+    <t>e9f89e7e</t>
+  </si>
+  <si>
+    <t>canan.tamer@hotmail.com</t>
+  </si>
+  <si>
+    <t>8aa3cea5</t>
+  </si>
+  <si>
+    <t>muhittin.ozer@90pixel.com</t>
   </si>
 </sst>
 </file>
@@ -542,18 +554,18 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -595,10 +607,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -609,66 +621,66 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>55689961</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
         <v>31</v>
@@ -679,128 +691,128 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12">
-        <v>66582753</v>
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/hw.xlsx
+++ b/hw.xlsx
@@ -15,180 +15,177 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
-  <si>
-    <t>Aslı</t>
-  </si>
-  <si>
-    <t>Gün</t>
-  </si>
-  <si>
-    <t>765f8dc9</t>
-  </si>
-  <si>
-    <t>asli.gun@yahoo.com</t>
-  </si>
-  <si>
-    <t>Elif</t>
-  </si>
-  <si>
-    <t>da0936a6</t>
-  </si>
-  <si>
-    <t>elif.gun@outlook.com</t>
-  </si>
-  <si>
-    <t>Can</t>
-  </si>
-  <si>
-    <t>Gür</t>
-  </si>
-  <si>
-    <t>9e97303e</t>
-  </si>
-  <si>
-    <t>can.gur@gmail.com</t>
-  </si>
-  <si>
-    <t>Ömer</t>
-  </si>
-  <si>
-    <t>f40bcd0e</t>
-  </si>
-  <si>
-    <t>omer.gur@90pixel.com</t>
-  </si>
-  <si>
-    <t>Kerim</t>
-  </si>
-  <si>
-    <t>Tamer</t>
-  </si>
-  <si>
-    <t>3e6317d6</t>
-  </si>
-  <si>
-    <t>kerim.tamer@hotmail.com</t>
-  </si>
-  <si>
-    <t>Canan</t>
-  </si>
-  <si>
-    <t>862f13e1</t>
-  </si>
-  <si>
-    <t>canan.gur@gmail.com</t>
-  </si>
-  <si>
-    <t>Yılmazer</t>
-  </si>
-  <si>
-    <t>105da319</t>
-  </si>
-  <si>
-    <t>elif.yilmazer@yahoo.com</t>
-  </si>
-  <si>
-    <t>Kırpat</t>
-  </si>
-  <si>
-    <t>c08eac9f</t>
-  </si>
-  <si>
-    <t>omer.kirpat@outlook.com</t>
-  </si>
-  <si>
-    <t>kerim.tamer@yahoo.com</t>
-  </si>
-  <si>
-    <t>Mutlu</t>
-  </si>
-  <si>
-    <t>7a8986d9</t>
-  </si>
-  <si>
-    <t>can.mutlu@yahoo.com</t>
-  </si>
-  <si>
-    <t>5e3486e1</t>
-  </si>
-  <si>
-    <t>asli.mutlu@90pixel.com</t>
-  </si>
-  <si>
-    <t>Melek</t>
-  </si>
-  <si>
-    <t>Fırtana</t>
-  </si>
-  <si>
-    <t>455dd34d</t>
-  </si>
-  <si>
-    <t>melek.firtana@yahoo.com</t>
-  </si>
-  <si>
-    <t>Ali</t>
-  </si>
-  <si>
-    <t>Özer</t>
-  </si>
-  <si>
-    <t>99c486be</t>
-  </si>
-  <si>
-    <t>ali.ozer@hotmail.com</t>
-  </si>
-  <si>
-    <t>Caner</t>
-  </si>
-  <si>
-    <t>e741b2db</t>
-  </si>
-  <si>
-    <t>caner.gun@gmail.com</t>
-  </si>
-  <si>
-    <t>9eeb87bb</t>
-  </si>
-  <si>
-    <t>ali.yilmazer@yahoo.com</t>
-  </si>
-  <si>
-    <t>Muhittin</t>
-  </si>
-  <si>
-    <t>c70a30e3</t>
-  </si>
-  <si>
-    <t>muhittin.firtana@hotmail.com</t>
-  </si>
-  <si>
-    <t>c625c31c</t>
-  </si>
-  <si>
-    <t>asli.gun@hotmail.com</t>
-  </si>
-  <si>
-    <t>Akar</t>
-  </si>
-  <si>
-    <t>ce048a6d</t>
-  </si>
-  <si>
-    <t>muhittin.akar@gmail.com</t>
-  </si>
-  <si>
-    <t>e9f89e7e</t>
-  </si>
-  <si>
-    <t>canan.tamer@hotmail.com</t>
-  </si>
-  <si>
-    <t>8aa3cea5</t>
-  </si>
-  <si>
-    <t>muhittin.ozer@90pixel.com</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
+  <si>
+    <t>veli</t>
+  </si>
+  <si>
+    <t>özer</t>
+  </si>
+  <si>
+    <t>62b2033b</t>
+  </si>
+  <si>
+    <t>veli.ozer@gmail.com</t>
+  </si>
+  <si>
+    <t>elif</t>
+  </si>
+  <si>
+    <t>eker</t>
+  </si>
+  <si>
+    <t>2aee04f7</t>
+  </si>
+  <si>
+    <t>elif.eker@hotmail.com</t>
+  </si>
+  <si>
+    <t>tuğçe</t>
+  </si>
+  <si>
+    <t>güt</t>
+  </si>
+  <si>
+    <t>05d46b13</t>
+  </si>
+  <si>
+    <t>tugce.gut@outlook.com</t>
+  </si>
+  <si>
+    <t>9d572c2d</t>
+  </si>
+  <si>
+    <t>veli.eker@gmail.com</t>
+  </si>
+  <si>
+    <t>can</t>
+  </si>
+  <si>
+    <t>be3334a6</t>
+  </si>
+  <si>
+    <t>can.eker@hotmail.com</t>
+  </si>
+  <si>
+    <t>kerim</t>
+  </si>
+  <si>
+    <t>kırpat</t>
+  </si>
+  <si>
+    <t>15ef2848</t>
+  </si>
+  <si>
+    <t>kerim.kirpat@yahoo.com</t>
+  </si>
+  <si>
+    <t>ekrem</t>
+  </si>
+  <si>
+    <t>cbd64075</t>
+  </si>
+  <si>
+    <t>ekrem.kirpat@gmail.com</t>
+  </si>
+  <si>
+    <t>akar</t>
+  </si>
+  <si>
+    <t>b2d29629</t>
+  </si>
+  <si>
+    <t>kerim.akar@yahoo.com</t>
+  </si>
+  <si>
+    <t>9f42173f</t>
+  </si>
+  <si>
+    <t>tugce.kirpat@hotmail.com</t>
+  </si>
+  <si>
+    <t>melek</t>
+  </si>
+  <si>
+    <t>fırtana</t>
+  </si>
+  <si>
+    <t>c0600cfd</t>
+  </si>
+  <si>
+    <t>melek.firtana@hotmail.com</t>
+  </si>
+  <si>
+    <t>97b9845a</t>
+  </si>
+  <si>
+    <t>veli.kirpat@gmail.com</t>
+  </si>
+  <si>
+    <t>eb2a74ce</t>
+  </si>
+  <si>
+    <t>tugce.akar@hotmail.com</t>
+  </si>
+  <si>
+    <t>muhittin</t>
+  </si>
+  <si>
+    <t>eb6fb94f</t>
+  </si>
+  <si>
+    <t>muhittin.akar@90pixel.com</t>
+  </si>
+  <si>
+    <t>d65da6e0</t>
+  </si>
+  <si>
+    <t>kerim.ozer@90pixel.com</t>
+  </si>
+  <si>
+    <t>ömer</t>
+  </si>
+  <si>
+    <t>3ccbcfa5</t>
+  </si>
+  <si>
+    <t>omer.ozer@yahoo.com</t>
+  </si>
+  <si>
+    <t>dea872fd</t>
+  </si>
+  <si>
+    <t>melek.eker@yahoo.com</t>
+  </si>
+  <si>
+    <t>514724ee</t>
+  </si>
+  <si>
+    <t>omer.eker@gmail.com</t>
+  </si>
+  <si>
+    <t>9efbb58d</t>
+  </si>
+  <si>
+    <t>tugce.eker@90pixel.com</t>
+  </si>
+  <si>
+    <t>kaya</t>
+  </si>
+  <si>
+    <t>5ae15097</t>
+  </si>
+  <si>
+    <t>tugce.kaya@yahoo.com</t>
+  </si>
+  <si>
+    <t>ali</t>
+  </si>
+  <si>
+    <t>c69e14c3</t>
+  </si>
+  <si>
+    <t>ali.gut@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -554,35 +551,35 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -596,21 +593,21 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -621,10 +618,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
@@ -635,7 +632,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -649,30 +646,30 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9">
-        <v>55689961</v>
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -680,21 +677,21 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
         <v>35</v>
@@ -708,111 +705,111 @@
         <v>37</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
         <v>38</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>39</v>
-      </c>
-      <c r="D13" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
         <v>44</v>
-      </c>
-      <c r="D15" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
         <v>46</v>
-      </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" t="s">
         <v>56</v>
-      </c>
-      <c r="D20" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/hw.xlsx
+++ b/hw.xlsx
@@ -15,177 +15,108 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
-  <si>
-    <t>veli</t>
-  </si>
-  <si>
-    <t>özer</t>
-  </si>
-  <si>
-    <t>62b2033b</t>
-  </si>
-  <si>
-    <t>veli.ozer@gmail.com</t>
-  </si>
-  <si>
-    <t>elif</t>
-  </si>
-  <si>
-    <t>eker</t>
-  </si>
-  <si>
-    <t>2aee04f7</t>
-  </si>
-  <si>
-    <t>elif.eker@hotmail.com</t>
-  </si>
-  <si>
-    <t>tuğçe</t>
-  </si>
-  <si>
-    <t>güt</t>
-  </si>
-  <si>
-    <t>05d46b13</t>
-  </si>
-  <si>
-    <t>tugce.gut@outlook.com</t>
-  </si>
-  <si>
-    <t>9d572c2d</t>
-  </si>
-  <si>
-    <t>veli.eker@gmail.com</t>
-  </si>
-  <si>
-    <t>can</t>
-  </si>
-  <si>
-    <t>be3334a6</t>
-  </si>
-  <si>
-    <t>can.eker@hotmail.com</t>
-  </si>
-  <si>
-    <t>kerim</t>
-  </si>
-  <si>
-    <t>kırpat</t>
-  </si>
-  <si>
-    <t>15ef2848</t>
-  </si>
-  <si>
-    <t>kerim.kirpat@yahoo.com</t>
-  </si>
-  <si>
-    <t>ekrem</t>
-  </si>
-  <si>
-    <t>cbd64075</t>
-  </si>
-  <si>
-    <t>ekrem.kirpat@gmail.com</t>
-  </si>
-  <si>
-    <t>akar</t>
-  </si>
-  <si>
-    <t>b2d29629</t>
-  </si>
-  <si>
-    <t>kerim.akar@yahoo.com</t>
-  </si>
-  <si>
-    <t>9f42173f</t>
-  </si>
-  <si>
-    <t>tugce.kirpat@hotmail.com</t>
-  </si>
-  <si>
-    <t>melek</t>
-  </si>
-  <si>
-    <t>fırtana</t>
-  </si>
-  <si>
-    <t>c0600cfd</t>
-  </si>
-  <si>
-    <t>melek.firtana@hotmail.com</t>
-  </si>
-  <si>
-    <t>97b9845a</t>
-  </si>
-  <si>
-    <t>veli.kirpat@gmail.com</t>
-  </si>
-  <si>
-    <t>eb2a74ce</t>
-  </si>
-  <si>
-    <t>tugce.akar@hotmail.com</t>
-  </si>
-  <si>
-    <t>muhittin</t>
-  </si>
-  <si>
-    <t>eb6fb94f</t>
-  </si>
-  <si>
-    <t>muhittin.akar@90pixel.com</t>
-  </si>
-  <si>
-    <t>d65da6e0</t>
-  </si>
-  <si>
-    <t>kerim.ozer@90pixel.com</t>
-  </si>
-  <si>
-    <t>ömer</t>
-  </si>
-  <si>
-    <t>3ccbcfa5</t>
-  </si>
-  <si>
-    <t>omer.ozer@yahoo.com</t>
-  </si>
-  <si>
-    <t>dea872fd</t>
-  </si>
-  <si>
-    <t>melek.eker@yahoo.com</t>
-  </si>
-  <si>
-    <t>514724ee</t>
-  </si>
-  <si>
-    <t>omer.eker@gmail.com</t>
-  </si>
-  <si>
-    <t>9efbb58d</t>
-  </si>
-  <si>
-    <t>tugce.eker@90pixel.com</t>
-  </si>
-  <si>
-    <t>kaya</t>
-  </si>
-  <si>
-    <t>5ae15097</t>
-  </si>
-  <si>
-    <t>tugce.kaya@yahoo.com</t>
-  </si>
-  <si>
-    <t>ali</t>
-  </si>
-  <si>
-    <t>c69e14c3</t>
-  </si>
-  <si>
-    <t>ali.gut@gmail.com</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>675c1134</t>
+  </si>
+  <si>
+    <t>.a@outlook.com</t>
+  </si>
+  <si>
+    <t>96de6e97</t>
+  </si>
+  <si>
+    <t>a.@gmail.com</t>
+  </si>
+  <si>
+    <t>026af0e6</t>
+  </si>
+  <si>
+    <t>a.a@90pixel.com</t>
+  </si>
+  <si>
+    <t>ea833fd1</t>
+  </si>
+  <si>
+    <t>a.a@outlook.com</t>
+  </si>
+  <si>
+    <t>455beb09</t>
+  </si>
+  <si>
+    <t>a.a@gmail.com</t>
+  </si>
+  <si>
+    <t>cc65eeac</t>
+  </si>
+  <si>
+    <t>a.a@hotmail.com</t>
+  </si>
+  <si>
+    <t>aaA</t>
+  </si>
+  <si>
+    <t>9fc0dc29</t>
+  </si>
+  <si>
+    <t>aaa.a@hotmail.com</t>
+  </si>
+  <si>
+    <t>4c1acb1a</t>
+  </si>
+  <si>
+    <t>be6587a9</t>
+  </si>
+  <si>
+    <t>e60d1c34</t>
+  </si>
+  <si>
+    <t>a95cc299</t>
+  </si>
+  <si>
+    <t>.@hotmail.com</t>
+  </si>
+  <si>
+    <t>417ae94b</t>
+  </si>
+  <si>
+    <t>aaa.a@outlook.com</t>
+  </si>
+  <si>
+    <t>f7e1449f</t>
+  </si>
+  <si>
+    <t>e55502c1</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>45ebcef5</t>
+  </si>
+  <si>
+    <t>a.aa@90pixel.com</t>
+  </si>
+  <si>
+    <t>e5dac58f</t>
+  </si>
+  <si>
+    <t>0dff20c1</t>
+  </si>
+  <si>
+    <t>2c81239a</t>
+  </si>
+  <si>
+    <t>.aa@outlook.com</t>
+  </si>
+  <si>
+    <t>723e1c73</t>
+  </si>
+  <si>
+    <t>.@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -533,45 +464,41 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
+      <c r="A1"/>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2"/>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -579,97 +506,97 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>10313731</v>
+      </c>
+      <c r="D9" t="s">
         <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -677,139 +604,129 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
+      <c r="A12"/>
+      <c r="B12"/>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
+      <c r="A19"/>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
+      <c r="A20"/>
+      <c r="B20"/>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/hw.xlsx
+++ b/hw.xlsx
@@ -15,108 +15,177 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>675c1134</t>
-  </si>
-  <si>
-    <t>.a@outlook.com</t>
-  </si>
-  <si>
-    <t>96de6e97</t>
-  </si>
-  <si>
-    <t>a.@gmail.com</t>
-  </si>
-  <si>
-    <t>026af0e6</t>
-  </si>
-  <si>
-    <t>a.a@90pixel.com</t>
-  </si>
-  <si>
-    <t>ea833fd1</t>
-  </si>
-  <si>
-    <t>a.a@outlook.com</t>
-  </si>
-  <si>
-    <t>455beb09</t>
-  </si>
-  <si>
-    <t>a.a@gmail.com</t>
-  </si>
-  <si>
-    <t>cc65eeac</t>
-  </si>
-  <si>
-    <t>a.a@hotmail.com</t>
-  </si>
-  <si>
-    <t>aaA</t>
-  </si>
-  <si>
-    <t>9fc0dc29</t>
-  </si>
-  <si>
-    <t>aaa.a@hotmail.com</t>
-  </si>
-  <si>
-    <t>4c1acb1a</t>
-  </si>
-  <si>
-    <t>be6587a9</t>
-  </si>
-  <si>
-    <t>e60d1c34</t>
-  </si>
-  <si>
-    <t>a95cc299</t>
-  </si>
-  <si>
-    <t>.@hotmail.com</t>
-  </si>
-  <si>
-    <t>417ae94b</t>
-  </si>
-  <si>
-    <t>aaa.a@outlook.com</t>
-  </si>
-  <si>
-    <t>f7e1449f</t>
-  </si>
-  <si>
-    <t>e55502c1</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>45ebcef5</t>
-  </si>
-  <si>
-    <t>a.aa@90pixel.com</t>
-  </si>
-  <si>
-    <t>e5dac58f</t>
-  </si>
-  <si>
-    <t>0dff20c1</t>
-  </si>
-  <si>
-    <t>2c81239a</t>
-  </si>
-  <si>
-    <t>.aa@outlook.com</t>
-  </si>
-  <si>
-    <t>723e1c73</t>
-  </si>
-  <si>
-    <t>.@gmail.com</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
+  <si>
+    <t>elif</t>
+  </si>
+  <si>
+    <t>akar</t>
+  </si>
+  <si>
+    <t>8d50f257</t>
+  </si>
+  <si>
+    <t>elif.akar@outlook.com</t>
+  </si>
+  <si>
+    <t>ece</t>
+  </si>
+  <si>
+    <t>fırtana</t>
+  </si>
+  <si>
+    <t>43bb0a1f</t>
+  </si>
+  <si>
+    <t>ece.firtana@outlook.com</t>
+  </si>
+  <si>
+    <t>veli</t>
+  </si>
+  <si>
+    <t>eker</t>
+  </si>
+  <si>
+    <t>9ddeff71</t>
+  </si>
+  <si>
+    <t>veli.eker@90pixel.com</t>
+  </si>
+  <si>
+    <t>ali</t>
+  </si>
+  <si>
+    <t>ergez</t>
+  </si>
+  <si>
+    <t>7a18294f</t>
+  </si>
+  <si>
+    <t>ali.ergez@90pixel.com</t>
+  </si>
+  <si>
+    <t>tugçe</t>
+  </si>
+  <si>
+    <t>mutlu</t>
+  </si>
+  <si>
+    <t>1bcb575a</t>
+  </si>
+  <si>
+    <t>tugce.mutlu@yahoo.com</t>
+  </si>
+  <si>
+    <t>gürdal</t>
+  </si>
+  <si>
+    <t>5c2a40d6</t>
+  </si>
+  <si>
+    <t>gurdal.firtana@90pixel.com</t>
+  </si>
+  <si>
+    <t>özen</t>
+  </si>
+  <si>
+    <t>9b88f077</t>
+  </si>
+  <si>
+    <t>veli.ozen@outlook.com</t>
+  </si>
+  <si>
+    <t>can</t>
+  </si>
+  <si>
+    <t>can.eker@outlook.com</t>
+  </si>
+  <si>
+    <t>ceren</t>
+  </si>
+  <si>
+    <t>fdcd734a</t>
+  </si>
+  <si>
+    <t>ceren.akar@gmail.com</t>
+  </si>
+  <si>
+    <t>ad4c1ea6</t>
+  </si>
+  <si>
+    <t>gurdal.ozen@90pixel.com</t>
+  </si>
+  <si>
+    <t>1c8d0f44</t>
+  </si>
+  <si>
+    <t>elif.firtana@yahoo.com</t>
+  </si>
+  <si>
+    <t>er</t>
+  </si>
+  <si>
+    <t>a5a861fd</t>
+  </si>
+  <si>
+    <t>tugce.er@90pixel.com</t>
+  </si>
+  <si>
+    <t>ebb96f23</t>
+  </si>
+  <si>
+    <t>elif.mutlu@outlook.com</t>
+  </si>
+  <si>
+    <t>db9f39d3</t>
+  </si>
+  <si>
+    <t>ece.er@yahoo.com</t>
+  </si>
+  <si>
+    <t>c8478315</t>
+  </si>
+  <si>
+    <t>ece.mutlu@yahoo.com</t>
+  </si>
+  <si>
+    <t>ömer</t>
+  </si>
+  <si>
+    <t>ege</t>
+  </si>
+  <si>
+    <t>0c768d2f</t>
+  </si>
+  <si>
+    <t>omer.ege@90pixel.com</t>
+  </si>
+  <si>
+    <t>nergis</t>
+  </si>
+  <si>
+    <t>caffe989</t>
+  </si>
+  <si>
+    <t>gurdal.nergis@outlook.com</t>
+  </si>
+  <si>
+    <t>e764d8e9</t>
+  </si>
+  <si>
+    <t>ece.akar@90pixel.com</t>
+  </si>
+  <si>
+    <t>ad4f1933</t>
+  </si>
+  <si>
+    <t>ece.akar@outlook.com</t>
+  </si>
+  <si>
+    <t>d92c6504</t>
+  </si>
+  <si>
+    <t>ceren.ergez@outlook.com</t>
   </si>
 </sst>
 </file>
@@ -464,139 +533,143 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1"/>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2"/>
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>79778</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>10313731</v>
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -604,129 +677,139 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12"/>
-      <c r="B12"/>
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19"/>
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20"/>
-      <c r="B20"/>
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
